--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N2">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O2">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P2">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q2">
-        <v>122.6347611288942</v>
+        <v>217.1859192544507</v>
       </c>
       <c r="R2">
-        <v>122.6347611288942</v>
+        <v>1954.673273290056</v>
       </c>
       <c r="S2">
-        <v>0.07349631928598648</v>
+        <v>0.0950161944061057</v>
       </c>
       <c r="T2">
-        <v>0.07349631928598648</v>
+        <v>0.09501619440610568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N3">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P3">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q3">
-        <v>1.24402603267556</v>
+        <v>1.734898143410667</v>
       </c>
       <c r="R3">
-        <v>1.24402603267556</v>
+        <v>15.614083290696</v>
       </c>
       <c r="S3">
-        <v>0.0007455580591990872</v>
+        <v>0.0007589968071363436</v>
       </c>
       <c r="T3">
-        <v>0.0007455580591990872</v>
+        <v>0.0007589968071363433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N4">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q4">
-        <v>20.63654424075028</v>
+        <v>28.50404993025333</v>
       </c>
       <c r="R4">
-        <v>20.63654424075028</v>
+        <v>256.53644937228</v>
       </c>
       <c r="S4">
-        <v>0.01236770089096878</v>
+        <v>0.01247017467260965</v>
       </c>
       <c r="T4">
-        <v>0.01236770089096878</v>
+        <v>0.01247017467260964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N5">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O5">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P5">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q5">
-        <v>1188.439271960764</v>
+        <v>1642.706838355105</v>
       </c>
       <c r="R5">
-        <v>1188.439271960764</v>
+        <v>14784.36154519595</v>
       </c>
       <c r="S5">
-        <v>0.7122443211042705</v>
+        <v>0.7186642340405289</v>
       </c>
       <c r="T5">
-        <v>0.7122443211042705</v>
+        <v>0.7186642340405287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N6">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P6">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q6">
-        <v>12.05571225453172</v>
+        <v>13.12207096027878</v>
       </c>
       <c r="R6">
-        <v>12.05571225453172</v>
+        <v>118.098638642509</v>
       </c>
       <c r="S6">
-        <v>0.00722511683410683</v>
+        <v>0.005740746221728242</v>
       </c>
       <c r="T6">
-        <v>0.00722511683410683</v>
+        <v>0.00574074622172824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N7">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q7">
-        <v>199.986361024394</v>
+        <v>215.5931558637772</v>
       </c>
       <c r="R7">
-        <v>199.986361024394</v>
+        <v>1940.338402773995</v>
       </c>
       <c r="S7">
-        <v>0.1198539574537349</v>
+        <v>0.09431937982212775</v>
       </c>
       <c r="T7">
-        <v>0.1198539574537349</v>
+        <v>0.09431937982212772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H8">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N8">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O8">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P8">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q8">
-        <v>104.875145123768</v>
+        <v>146.5295725942186</v>
       </c>
       <c r="R8">
-        <v>104.875145123768</v>
+        <v>1318.766153347968</v>
       </c>
       <c r="S8">
-        <v>0.06285279214658605</v>
+        <v>0.06410490331808445</v>
       </c>
       <c r="T8">
-        <v>0.06285279214658605</v>
+        <v>0.06410490331808444</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H9">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N9">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P9">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q9">
-        <v>1.063869734107999</v>
+        <v>1.170489709098667</v>
       </c>
       <c r="R9">
-        <v>1.063869734107999</v>
+        <v>10.534407381888</v>
       </c>
       <c r="S9">
-        <v>0.0006375884695083932</v>
+        <v>0.0005120749914720172</v>
       </c>
       <c r="T9">
-        <v>0.0006375884695083932</v>
+        <v>0.000512074991472017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H10">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N10">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q10">
-        <v>17.6480188176582</v>
+        <v>19.23092559509333</v>
       </c>
       <c r="R10">
-        <v>17.6480188176582</v>
+        <v>173.07833035584</v>
       </c>
       <c r="S10">
-        <v>0.01057664575563886</v>
+        <v>0.008413295720207225</v>
       </c>
       <c r="T10">
-        <v>0.01057664575563886</v>
+        <v>0.008413295720207221</v>
       </c>
     </row>
   </sheetData>
